--- a/doc/2023年上期/画面全体イメージ.xlsx
+++ b/doc/2023年上期/画面全体イメージ.xlsx
@@ -8,6 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="VLfLBqK/MIJ6NmuWMzMZA54bVJfQ1VYxm/znjCOkd8k="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -259,7 +264,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -269,7 +274,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -305,6 +309,11 @@
       <name val="游ゴシック"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0066FF"/>
+      <name val="游ゴシック"/>
+    </font>
     <font>
       <u/>
       <sz val="11.0"/>
@@ -516,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -537,19 +546,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,25 +588,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -628,6 +631,9 @@
     <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -646,14 +652,14 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -661,20 +667,17 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,11 +692,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6896100" cy="361950"/>
+    <xdr:ext cx="6905625" cy="371475"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -701,8 +704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1907475" y="3608550"/>
-          <a:ext cx="6877050" cy="342900"/>
+          <a:off x="1897950" y="3599025"/>
+          <a:ext cx="6896100" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,6 +736,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="FF0000"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1018,14 +1026,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="4" width="7.63"/>
     <col customWidth="1" min="5" max="5" width="9.0"/>
     <col customWidth="1" min="6" max="8" width="7.63"/>
     <col customWidth="1" min="9" max="9" width="11.38"/>
     <col customWidth="1" min="10" max="10" width="12.25"/>
-    <col customWidth="1" min="11" max="26" width="7.63"/>
+    <col customWidth="1" min="11" max="14" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1"/>
@@ -1071,11 +1079,11 @@
         <v>3</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="6"/>
@@ -1086,7 +1094,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="8"/>
@@ -1098,7 +1106,7 @@
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="N11" s="6"/>
@@ -1116,196 +1124,196 @@
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="B14" s="5"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="16"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="24">
+      <c r="J15" s="21"/>
+      <c r="K15" s="23">
         <v>45033.0</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="21"/>
       <c r="N15" s="6"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="B16" s="5"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="24">
+      <c r="J16" s="21"/>
+      <c r="K16" s="23">
         <v>45034.0</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="21"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="5"/>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="24">
+      <c r="J17" s="21"/>
+      <c r="K17" s="23">
         <v>45035.0</v>
       </c>
-      <c r="L17" s="22"/>
+      <c r="L17" s="21"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="B18" s="5"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="26">
+      <c r="J18" s="21"/>
+      <c r="K18" s="25">
         <v>45036.0</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="21"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="5"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="24">
+      <c r="J19" s="21"/>
+      <c r="K19" s="23">
         <v>45032.0</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="21"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="B20" s="5"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="27" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="28" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="21"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="24">
+      <c r="J21" s="21"/>
+      <c r="K21" s="23">
         <v>45034.0</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="21"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="24">
+      <c r="J22" s="21"/>
+      <c r="K22" s="23">
         <v>45032.0</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="21"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="6"/>
@@ -1315,19 +1323,19 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" ht="18.75" customHeight="1"/>
     <row r="27" ht="18.75" customHeight="1">
@@ -1365,10 +1373,10 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="B32" s="5"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="6"/>
@@ -1396,194 +1404,194 @@
     </row>
     <row r="36" ht="18.75" customHeight="1">
       <c r="B36" s="5"/>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="37" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="21"/>
+      <c r="I36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="21"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="B37" s="5"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="23" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40">
+      <c r="H37" s="38"/>
+      <c r="I37" s="39">
         <v>45033.0</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="40">
         <v>0.4930555555555556</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="K37" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="21"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="B38" s="5"/>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40">
+      <c r="H38" s="38"/>
+      <c r="I38" s="39">
         <v>45034.0</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="40">
         <v>0.9895833333333334</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="22"/>
+      <c r="L38" s="21"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="B39" s="5"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="23" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40">
+      <c r="H39" s="38"/>
+      <c r="I39" s="39">
         <v>45034.0</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="40">
         <v>0.96875</v>
       </c>
-      <c r="K39" s="42" t="s">
+      <c r="K39" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="21"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="B40" s="5"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="23" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40">
+      <c r="H40" s="38"/>
+      <c r="I40" s="39">
         <v>45036.0</v>
       </c>
-      <c r="J40" s="41">
+      <c r="J40" s="40">
         <v>0.96875</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="22"/>
+      <c r="L40" s="21"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="B41" s="5"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="23" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40">
+      <c r="H41" s="38"/>
+      <c r="I41" s="39">
         <v>45037.0</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="40">
         <v>0.875</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="K41" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="22"/>
+      <c r="L41" s="21"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="B42" s="5"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="23" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40">
+      <c r="H42" s="38"/>
+      <c r="I42" s="39">
         <v>45038.0</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J42" s="40">
         <v>0.8333333333333334</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="22"/>
+      <c r="L42" s="21"/>
       <c r="N42" s="6"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="B43" s="5"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="22"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="21"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="B44" s="5"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="22"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="21"/>
       <c r="N44" s="6"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="B45" s="5"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="6"/>
@@ -1593,19 +1601,19 @@
       <c r="N46" s="6"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="32"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30"/>
     </row>
     <row r="48" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1">
@@ -1639,12 +1647,12 @@
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="B53" s="5"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="31"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="B54" s="5"/>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="45" t="s">
         <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -1654,21 +1662,21 @@
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="B55" s="5"/>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="47">
         <v>45033.0</v>
       </c>
       <c r="N55" s="6"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="B56" s="49"/>
-      <c r="C56" s="47" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="49" t="s">
         <v>45</v>
       </c>
       <c r="N56" s="6"/>
@@ -1679,70 +1687,70 @@
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="B58" s="5"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="B59" s="5"/>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="19"/>
       <c r="N59" s="6"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="B60" s="5"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="20"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="19"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="B61" s="5"/>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="20"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="19"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="B62" s="5"/>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="20"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="19"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="B63" s="5"/>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="20"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="19"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" ht="18.75" customHeight="1">
       <c r="B64" s="5"/>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="20"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="19"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" ht="18.75" customHeight="1">
       <c r="B65" s="5"/>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="44" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="6"/>
@@ -1752,19 +1760,19 @@
       <c r="N66" s="6"/>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="32"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
     </row>
     <row r="68" ht="18.75" customHeight="1"/>
     <row r="69" ht="18.75" customHeight="1"/>
@@ -1964,744 +1972,741 @@
     <row r="263" ht="18.75" customHeight="1"/>
     <row r="264" ht="18.75" customHeight="1"/>
     <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
-    <row r="1001" ht="18.75" customHeight="1"/>
-    <row r="1002" ht="18.75" customHeight="1"/>
-    <row r="1003" ht="18.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="I17:J17"/>
@@ -2755,69 +2760,1062 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="9" t="s">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="52" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="9" t="s">
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="9" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="9" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="9" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="53" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="9" t="s">
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="54" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="52" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:C8"/>
     <mergeCell ref="B12:C15"/>
-    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B19:C20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/2023年上期/画面全体イメージ.xlsx
+++ b/doc/2023年上期/画面全体イメージ.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="VLfLBqK/MIJ6NmuWMzMZA54bVJfQ1VYxm/znjCOkd8k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ikIFO0lWj8EgY0lkkflua9waNc7DguyXdnufBqLcgLI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>メイン画面（タレントベース表示）</t>
   </si>
@@ -43,6 +43,12 @@
     <t>検索</t>
   </si>
   <si>
+    <t xml:space="preserve">対象年月・週： </t>
+  </si>
+  <si>
+    <t>2023/04 3週</t>
+  </si>
+  <si>
     <t>対象週　2023/4/16 - 2023/4/22</t>
   </si>
   <si>
@@ -100,15 +106,6 @@
     <t>千鳥の鬼連チャン</t>
   </si>
   <si>
-    <t>有村架純</t>
-  </si>
-  <si>
-    <t>0件</t>
-  </si>
-  <si>
-    <t>ー</t>
-  </si>
-  <si>
     <t>みちょぱ（池田美優）</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>お笑い</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>出演番組</t>
@@ -264,7 +264,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -292,6 +292,12 @@
     </font>
     <font>
       <u/>
+      <sz val="9.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF0066FF"/>
       <name val="游ゴシック"/>
@@ -310,12 +316,18 @@
     </font>
     <font/>
     <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF0066FF"/>
       <name val="游ゴシック"/>
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0066FF"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF0066FF"/>
       <name val="游ゴシック"/>
@@ -328,12 +340,24 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="ヒラギノ角ゴ pron w3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +368,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDADADA"/>
         <bgColor rgb="FFDADADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -525,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -560,50 +590,56 @@
     <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -621,15 +657,26 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -646,13 +693,13 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -670,13 +717,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +812,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7562850" cy="447675"/>
@@ -793,7 +840,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7562850" cy="447675"/>
@@ -1117,251 +1164,240 @@
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="B13" s="5"/>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>8</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="B14" s="5"/>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="18"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="D15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23">
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="25">
         <v>45033.0</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="23"/>
       <c r="N15" s="6"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="B16" s="5"/>
-      <c r="D16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="25">
         <v>45034.0</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="23"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="5"/>
-      <c r="D17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23">
+      <c r="E17" s="26"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="25">
         <v>45035.0</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="L17" s="23"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="B18" s="5"/>
-      <c r="D18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="25">
+      <c r="E18" s="26"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="27">
         <v>45036.0</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="23"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="5"/>
-      <c r="D19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23">
+      <c r="D19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="25">
         <v>45032.0</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="23"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="B20" s="5"/>
-      <c r="D20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="25">
+        <v>45034.0</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23">
-        <v>45034.0</v>
-      </c>
-      <c r="L21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="25">
+        <v>45032.0</v>
+      </c>
+      <c r="L21" s="23"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="D22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
+      <c r="D22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23">
-        <v>45032.0</v>
-      </c>
-      <c r="L22" s="21"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="D23" s="27" t="s">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1"/>
+    </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="B30" s="5"/>
@@ -1369,411 +1405,404 @@
     </row>
     <row r="31" ht="18.75" customHeight="1">
       <c r="B31" s="5"/>
+      <c r="D31" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="N31" s="6"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="B32" s="5"/>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>13</v>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N32" s="6"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
       <c r="B33" s="5"/>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N33" s="6"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="B34" s="5"/>
+      <c r="D34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N34" s="6"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
       <c r="B35" s="5"/>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D35" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="23"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
       <c r="B36" s="5"/>
-      <c r="D36" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="34"/>
+      <c r="D36" s="41">
+        <v>1.00000001E8</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="21"/>
-      <c r="G36" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="21"/>
+      <c r="G36" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44">
+        <v>45033.0</v>
+      </c>
+      <c r="J36" s="45">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="23"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="B37" s="5"/>
-      <c r="D37" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39">
-        <v>45033.0</v>
-      </c>
-      <c r="J37" s="40">
-        <v>0.4930555555555556</v>
-      </c>
-      <c r="K37" s="41" t="s">
+      <c r="D37" s="47">
+        <v>1.00000002E8</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44">
+        <v>45034.0</v>
+      </c>
+      <c r="J37" s="45">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="K37" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="21"/>
+      <c r="L37" s="23"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="B38" s="5"/>
-      <c r="D38" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="37" t="s">
+      <c r="D38" s="41">
+        <v>1.00000003E8</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39">
+      <c r="H38" s="43"/>
+      <c r="I38" s="44">
         <v>45034.0</v>
       </c>
-      <c r="J38" s="40">
-        <v>0.9895833333333334</v>
-      </c>
-      <c r="K38" s="41" t="s">
+      <c r="J38" s="45">
+        <v>0.96875</v>
+      </c>
+      <c r="K38" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="23"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="B39" s="5"/>
-      <c r="D39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="37" t="s">
+      <c r="D39" s="47">
+        <v>1.00000004E8</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39">
-        <v>45034.0</v>
-      </c>
-      <c r="J39" s="40">
+      <c r="H39" s="43"/>
+      <c r="I39" s="44">
+        <v>45036.0</v>
+      </c>
+      <c r="J39" s="45">
         <v>0.96875</v>
       </c>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="23"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="B40" s="5"/>
-      <c r="D40" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39">
-        <v>45036.0</v>
-      </c>
-      <c r="J40" s="40">
-        <v>0.96875</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="21"/>
+      <c r="D40" s="41">
+        <v>1.00000005E8</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44">
+        <v>45037.0</v>
+      </c>
+      <c r="J40" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="23"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="B41" s="5"/>
-      <c r="D41" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39">
-        <v>45037.0</v>
-      </c>
-      <c r="J41" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="21"/>
+      <c r="D41" s="47">
+        <v>1.00000006E8</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44">
+        <v>45038.0</v>
+      </c>
+      <c r="J41" s="45">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="23"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="B42" s="5"/>
-      <c r="D42" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39">
-        <v>45038.0</v>
-      </c>
-      <c r="J42" s="40">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="K42" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="21"/>
+      <c r="D42" s="49" t="s">
+        <v>32</v>
+      </c>
       <c r="N42" s="6"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="B43" s="5"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="21"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="B44" s="5"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="21"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="B45" s="5"/>
-      <c r="D45" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="6"/>
-    </row>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1"/>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="B46" s="5"/>
-      <c r="N46" s="6"/>
+      <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="30"/>
-    </row>
-    <row r="48" ht="18.75" customHeight="1"/>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="4"/>
+    </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="D50" s="33"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="D51" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="B52" s="5"/>
+      <c r="C52" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="52">
+        <v>45033.0</v>
+      </c>
       <c r="N52" s="6"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="B53" s="5"/>
-      <c r="D53" s="31"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="N53" s="6"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="B54" s="5"/>
-      <c r="D54" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="N54" s="6"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="B55" s="5"/>
-      <c r="C55" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="47">
-        <v>45033.0</v>
-      </c>
+      <c r="D55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
       <c r="N55" s="6"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="B56" s="48"/>
-      <c r="C56" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="49" t="s">
-        <v>45</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="D56" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="21"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="B57" s="5"/>
+      <c r="D57" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="21"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="B58" s="5"/>
-      <c r="D58" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
+      <c r="D58" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="21"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="B59" s="5"/>
-      <c r="D59" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="19"/>
+      <c r="D59" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="21"/>
       <c r="N59" s="6"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="B60" s="5"/>
-      <c r="D60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="19"/>
+      <c r="D60" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="21"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="B61" s="5"/>
-      <c r="D61" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="19"/>
+      <c r="D61" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="21"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="B62" s="5"/>
-      <c r="D62" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="19"/>
+      <c r="D62" s="49" t="s">
+        <v>32</v>
+      </c>
       <c r="N62" s="6"/>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="B63" s="5"/>
-      <c r="D63" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="19"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="B64" s="5"/>
-      <c r="D64" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="19"/>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" ht="18.75" customHeight="1">
-      <c r="B65" s="5"/>
-      <c r="D65" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" s="6"/>
-    </row>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="B66" s="5"/>
-      <c r="N66" s="6"/>
-    </row>
-    <row r="67" ht="18.75" customHeight="1">
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="30"/>
-    </row>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="32"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1"/>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1"/>
     <row r="68" ht="18.75" customHeight="1"/>
     <row r="69" ht="18.75" customHeight="1"/>
     <row r="70" ht="18.75" customHeight="1"/>
@@ -1969,9 +1998,9 @@
     <row r="260" ht="18.75" customHeight="1"/>
     <row r="261" ht="18.75" customHeight="1"/>
     <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
     <row r="266" ht="15.75" customHeight="1"/>
     <row r="267" ht="15.75" customHeight="1"/>
     <row r="268" ht="15.75" customHeight="1"/>
@@ -2704,11 +2733,8 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="28">
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="G15:H15"/>
@@ -2718,8 +2744,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
@@ -2727,17 +2751,12 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="K38:L38"/>
@@ -2777,7 +2796,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="55" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2811,7 +2830,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="56" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2826,7 +2845,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="57" t="s">
         <v>77</v>
       </c>
     </row>
